--- a/心电适配器开发工作计划.xlsx
+++ b/心电适配器开发工作计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="300">
   <si>
     <t>备注</t>
   </si>
@@ -989,14 +989,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>V2数据转MAP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP数据转XML</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      为心电系统提供查询申请单的webservice</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1125,10 +1117,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>MAP数据转DTO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1153,10 +1141,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.6.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.8</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1222,6 +1206,18 @@
   </si>
   <si>
     <t>——</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2数据转普通XML</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王盟、马松</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通XML转V2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1232,7 +1228,7 @@
   <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -2662,7 +2658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2679,10 +2675,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2777,16 +2773,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2798,6 +2794,15 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2819,6 +2824,33 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2828,21 +2860,9 @@
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2852,7 +2872,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2876,29 +2896,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="187">
@@ -3390,10 +3389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3404,7 +3403,7 @@
     <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="18.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3415,10 +3414,10 @@
       <c r="B1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="38" t="s">
         <v>183</v>
       </c>
@@ -3433,16 +3432,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="42"/>
       <c r="F2" s="47">
         <v>42623</v>
@@ -3453,13 +3452,13 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" s="42">
         <v>3</v>
@@ -3473,13 +3472,13 @@
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="43" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -3493,13 +3492,13 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="43" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E5" s="45">
         <v>1</v>
@@ -3513,13 +3512,13 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E6" s="45">
         <v>1</v>
@@ -3533,7 +3532,7 @@
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="51" t="s">
         <v>171</v>
       </c>
@@ -3553,13 +3552,13 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="43" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E8" s="45">
         <v>1</v>
@@ -3573,13 +3572,13 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="51" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="43" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E9" s="45">
         <v>1</v>
@@ -3593,7 +3592,7 @@
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="51" t="s">
         <v>180</v>
       </c>
@@ -3613,14 +3612,14 @@
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="45">
         <v>15</v>
       </c>
@@ -3633,7 +3632,7 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="51" t="s">
         <v>173</v>
       </c>
@@ -3653,12 +3652,12 @@
       <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="52" t="s">
         <v>205</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="87" t="s">
         <v>223</v>
       </c>
       <c r="E13" s="45">
@@ -3673,12 +3672,12 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="52" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="87" t="s">
         <v>200</v>
       </c>
       <c r="E14" s="45">
@@ -3693,12 +3692,12 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="52" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="87" t="s">
         <v>201</v>
       </c>
       <c r="E15" s="45">
@@ -3713,12 +3712,12 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="52" t="s">
         <v>208</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="87" t="s">
         <v>202</v>
       </c>
       <c r="E16" s="45">
@@ -3733,12 +3732,12 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="52" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="87" t="s">
         <v>214</v>
       </c>
       <c r="E17" s="45">
@@ -3753,7 +3752,7 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="52" t="s">
         <v>209</v>
       </c>
@@ -3773,7 +3772,7 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="52" t="s">
         <v>210</v>
       </c>
@@ -3793,7 +3792,7 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="56"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="52" t="s">
         <v>211</v>
       </c>
@@ -3805,17 +3804,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="56"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="52" t="s">
         <v>212</v>
       </c>
@@ -3835,7 +3834,7 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="52" t="s">
         <v>213</v>
       </c>
@@ -3847,17 +3846,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="51" t="s">
         <v>196</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="51" t="s">
         <v>225</v>
       </c>
@@ -3897,7 +3896,7 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="51" t="s">
         <v>226</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="56"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="51" t="s">
         <v>227</v>
       </c>
@@ -3937,7 +3936,7 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="56"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="51" t="s">
         <v>228</v>
       </c>
@@ -3957,7 +3956,7 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="51" t="s">
         <v>197</v>
       </c>
@@ -3977,7 +3976,7 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="51" t="s">
         <v>234</v>
       </c>
@@ -3997,7 +3996,7 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="51" t="s">
         <v>235</v>
       </c>
@@ -4009,17 +4008,17 @@
         <v>0</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="51" t="s">
         <v>236</v>
       </c>
@@ -4039,7 +4038,7 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="56"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="51" t="s">
         <v>237</v>
       </c>
@@ -4051,24 +4050,24 @@
         <v>0</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="85" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="45">
         <v>5</v>
       </c>
@@ -4077,14 +4076,14 @@
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="42">
         <v>10</v>
       </c>
@@ -4097,7 +4096,7 @@
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="56"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="51" t="s">
         <v>182</v>
       </c>
@@ -4117,14 +4116,14 @@
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="56"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="54"/>
+        <v>258</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="57"/>
       <c r="E36" s="45">
         <v>12</v>
       </c>
@@ -4137,15 +4136,15 @@
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="56"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="86">
+        <v>259</v>
+      </c>
+      <c r="C37" s="55">
         <v>1</v>
       </c>
-      <c r="D37" s="84" t="s">
-        <v>258</v>
+      <c r="D37" s="53" t="s">
+        <v>256</v>
       </c>
       <c r="E37" s="45">
         <v>8</v>
@@ -4159,13 +4158,13 @@
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="56"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E38" s="42">
         <v>6</v>
@@ -4179,13 +4178,13 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="56"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E39" s="45">
         <v>2</v>
@@ -4199,13 +4198,13 @@
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="56"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E40" s="45">
         <v>2</v>
@@ -4219,13 +4218,13 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="56"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E41" s="45">
         <v>2</v>
@@ -4239,13 +4238,13 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="56"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E42" s="45">
         <v>2</v>
@@ -4259,13 +4258,13 @@
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E43" s="45">
         <v>2</v>
@@ -4279,15 +4278,15 @@
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="56"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C44" s="86">
+        <v>266</v>
+      </c>
+      <c r="C44" s="55">
         <v>2</v>
       </c>
-      <c r="D44" s="84" t="s">
-        <v>259</v>
+      <c r="D44" s="53" t="s">
+        <v>257</v>
       </c>
       <c r="E44" s="45">
         <v>4</v>
@@ -4301,13 +4300,13 @@
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="56"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E45" s="45">
         <v>1</v>
@@ -4321,13 +4320,13 @@
       <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="56"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C46" s="44"/>
-      <c r="D46" s="43" t="s">
-        <v>251</v>
+      <c r="D46" s="87" t="s">
+        <v>249</v>
       </c>
       <c r="E46" s="45">
         <v>1</v>
@@ -4341,13 +4340,13 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E47" s="45">
         <v>3</v>
@@ -4361,13 +4360,13 @@
       <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="56"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E48" s="45">
         <v>1</v>
@@ -4381,13 +4380,13 @@
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="56"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E49" s="45">
         <v>1</v>
@@ -4401,13 +4400,13 @@
       <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="56"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E50" s="45">
         <v>1</v>
@@ -4421,14 +4420,14 @@
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="56"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="54"/>
+        <v>273</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="57"/>
       <c r="E51" s="45">
         <v>15</v>
       </c>
@@ -4441,13 +4440,13 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="56"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C52" s="50"/>
-      <c r="D52" s="41" t="s">
-        <v>242</v>
+      <c r="D52" s="43" t="s">
+        <v>297</v>
       </c>
       <c r="E52" s="45">
         <v>5</v>
@@ -4458,16 +4457,18 @@
       <c r="G52" s="47">
         <v>42665</v>
       </c>
-      <c r="H52" s="24"/>
+      <c r="H52" s="24" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="56"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="43" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="E53" s="45">
         <v>5</v>
@@ -4478,102 +4479,104 @@
       <c r="G53" s="47">
         <v>42680</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="24" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="56"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="43" t="s">
-        <v>243</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="57"/>
       <c r="E54" s="45">
-        <v>5</v>
-      </c>
-      <c r="F54" s="47">
-        <v>42686</v>
-      </c>
-      <c r="G54" s="47">
+        <v>9</v>
+      </c>
+      <c r="F54" s="48">
         <v>42700</v>
       </c>
+      <c r="G54" s="48">
+        <v>42721</v>
+      </c>
       <c r="H54" s="24"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="45">
-        <v>9</v>
+    <row r="55" spans="1:8">
+      <c r="A55" s="59"/>
+      <c r="B55" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="42">
+        <v>3</v>
       </c>
       <c r="F55" s="48">
         <v>42700</v>
       </c>
       <c r="G55" s="48">
-        <v>42721</v>
+        <v>42707</v>
       </c>
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="56"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" s="42">
         <v>3</v>
       </c>
       <c r="F56" s="48">
-        <v>42700</v>
+        <v>42701</v>
       </c>
       <c r="G56" s="48">
-        <v>42707</v>
+        <v>42708</v>
       </c>
       <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="56"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="41" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E57" s="42">
         <v>3</v>
       </c>
       <c r="F57" s="48">
-        <v>42701</v>
+        <v>42714</v>
       </c>
       <c r="G57" s="48">
-        <v>42708</v>
+        <v>42721</v>
       </c>
       <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="56"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41" t="s">
-        <v>198</v>
-      </c>
+      <c r="C58" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="57"/>
       <c r="E58" s="42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F58" s="48">
-        <v>42714</v>
+        <v>42687</v>
       </c>
       <c r="G58" s="48">
         <v>42721</v>
@@ -4581,14 +4584,14 @@
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="56"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="54"/>
+        <v>281</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41" t="s">
+        <v>185</v>
+      </c>
       <c r="E59" s="42">
         <v>10</v>
       </c>
@@ -4601,19 +4604,19 @@
       <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="56"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41" t="s">
-        <v>185</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="57"/>
       <c r="E60" s="42">
         <v>10</v>
       </c>
       <c r="F60" s="48">
-        <v>42687</v>
+        <v>42707</v>
       </c>
       <c r="G60" s="48">
         <v>42721</v>
@@ -4621,16 +4624,16 @@
       <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="56"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="54"/>
+        <v>283</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="E61" s="42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F61" s="48">
         <v>42707</v>
@@ -4641,13 +4644,13 @@
       <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="56"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" s="42">
         <v>5</v>
@@ -4660,32 +4663,12 @@
       </c>
       <c r="H62" s="24"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="57"/>
-      <c r="B63" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="42">
-        <v>5</v>
-      </c>
-      <c r="F63" s="48">
-        <v>42707</v>
-      </c>
-      <c r="G63" s="48">
-        <v>42721</v>
-      </c>
-      <c r="H63" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A2:A62"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C34:D34"/>
@@ -4775,7 +4758,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -4798,14 +4781,14 @@
       <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="72"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="71"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -4826,14 +4809,14 @@
       <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="73"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="71"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -4854,14 +4837,14 @@
       <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="73"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -4882,14 +4865,14 @@
       <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="73"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="81"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="71"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -4910,14 +4893,14 @@
       <c r="I6" s="10">
         <v>0.2</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="73"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="71"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -4938,14 +4921,14 @@
       <c r="I7" s="10">
         <v>0.5</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="74"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="71"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -4966,16 +4949,16 @@
       <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="68" t="s">
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="76" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="71"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -4996,14 +4979,14 @@
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="71"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -5024,14 +5007,14 @@
       <c r="I10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="77"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="71"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -5052,14 +5035,14 @@
       <c r="I11" s="10">
         <v>0.7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="71"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -5080,14 +5063,14 @@
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="69"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="71"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -5120,7 +5103,7 @@
       <c r="M13" s="18">
         <v>1</v>
       </c>
-      <c r="N13" s="69"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="63"/>
@@ -5148,7 +5131,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="70"/>
+      <c r="N14" s="78"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1">
       <c r="A15" s="63" t="s">
@@ -5186,7 +5169,7 @@
       <c r="M15" s="18">
         <v>1</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="N15" s="66" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5224,7 +5207,7 @@
       <c r="M16" s="18">
         <v>1</v>
       </c>
-      <c r="N16" s="81"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="64"/>
@@ -5260,7 +5243,7 @@
       <c r="M17" s="18">
         <v>1</v>
       </c>
-      <c r="N17" s="81"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="64"/>
@@ -5288,7 +5271,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="20"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="81"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="64"/>
@@ -5316,7 +5299,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="81"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1">
       <c r="A20" s="64"/>
@@ -5344,7 +5327,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="81"/>
+      <c r="N20" s="67"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="64"/>
@@ -5370,7 +5353,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="82"/>
+      <c r="N21" s="68"/>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1">
       <c r="A22" s="64"/>
@@ -5406,7 +5389,7 @@
       <c r="M22" s="18">
         <v>1</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="85" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5443,7 +5426,7 @@
       <c r="M23" s="18">
         <v>1</v>
       </c>
-      <c r="N23" s="78"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="64"/>
@@ -5479,7 +5462,7 @@
       <c r="M24" s="27">
         <v>0</v>
       </c>
-      <c r="N24" s="78"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1">
       <c r="A25" s="65"/>
@@ -5507,7 +5490,7 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="63" t="s">
@@ -5735,7 +5718,7 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="83" t="s">
+      <c r="N33" s="69" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5763,7 +5746,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="79"/>
+      <c r="N34" s="70"/>
     </row>
     <row r="35" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="64"/>
@@ -5789,7 +5772,7 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="79"/>
+      <c r="N35" s="70"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="64"/>
@@ -5817,7 +5800,7 @@
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="67"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="64"/>
@@ -5907,7 +5890,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="75" t="s">
+      <c r="N39" s="83" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5939,7 +5922,7 @@
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="76"/>
+      <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="64"/>
@@ -6029,7 +6012,7 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="83" t="s">
+      <c r="N43" s="69" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6059,7 +6042,7 @@
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="79"/>
+      <c r="N44" s="70"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="64"/>
@@ -6087,7 +6070,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="79"/>
+      <c r="N45" s="70"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="64"/>
@@ -6123,7 +6106,7 @@
       <c r="M46" s="27">
         <v>0</v>
       </c>
-      <c r="N46" s="67"/>
+      <c r="N46" s="71"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="64"/>
@@ -6395,7 +6378,7 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="66" t="s">
+      <c r="N55" s="75" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6425,7 +6408,7 @@
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
-      <c r="N56" s="67"/>
+      <c r="N56" s="71"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1">
       <c r="A57" s="64"/>
@@ -6513,7 +6496,7 @@
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
-      <c r="N59" s="60" t="s">
+      <c r="N59" s="72" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6543,7 +6526,7 @@
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
-      <c r="N60" s="61"/>
+      <c r="N60" s="73"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1">
       <c r="A61" s="64"/>
@@ -6571,7 +6554,7 @@
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
       <c r="M61" s="33"/>
-      <c r="N61" s="62"/>
+      <c r="N61" s="74"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1">
       <c r="A62" s="64"/>
@@ -6629,13 +6612,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="N15:N21"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A26:A32"/>
     <mergeCell ref="N59:N61"/>
     <mergeCell ref="A54:A64"/>
     <mergeCell ref="N55:N56"/>
@@ -6652,6 +6628,13 @@
     <mergeCell ref="L8:L12"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="N15:N21"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A26:A32"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/心电适配器开发工作计划.xlsx
+++ b/心电适配器开发工作计划.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="757"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="757" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="心电适配器开发计划" sheetId="23" r:id="rId1"/>
-    <sheet name="内研项目工作报告" sheetId="9" state="hidden" r:id="rId2"/>
+    <sheet name="心电系统开发计划" sheetId="24" r:id="rId2"/>
+    <sheet name="内研项目工作报告" sheetId="9" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="329">
   <si>
     <t>备注</t>
   </si>
@@ -729,10 +730,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>心电系统升级程序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring-MVC框架搭建</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1218,6 +1215,949 @@
   </si>
   <si>
     <t>普通XML转V2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心电系统程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>心电适配器程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查申请单信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单开立情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XML查询数据，调用适配器接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的XML数据</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单撤销情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XML查询数据，调用适配器接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的XML数据</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单确认情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XML查询数据，调用适配器接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的XML数据</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单确认情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器提供的XML数据，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单撤销情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器提供的XML数据，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      检查申请单开立情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器提供的XML数据，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      医嘱执行状态确认情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器接口推送，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      医嘱执行状态发布情况-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器接口推送，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>检查报告信息-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml报告数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适配器接口推送，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就检查申请单，开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用程序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心电适配器程序对应的webservice接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml查询条件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回结果</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就医嘱执行状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用程序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心电适配器程序对应的webservice接口，将医嘱执行状态xml数据主动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给适配器接口</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就检查报告，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用程序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心电适配器程序对应的webservice接口，将医嘱执行状态xml数据主动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给适配器接口</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>就检查申请单，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>webservice接口程序，供心电适配器程序调用，方便适配器向心电系统主动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml检查申请单</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +2168,7 @@
   <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -1240,7 +2180,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
     <numFmt numFmtId="186" formatCode="###0.0000_);[Red]\(###0.0000\)"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,6 +2640,20 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -1864,7 +2818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2213,68 +3167,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="187">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+    <xf numFmtId="176" fontId="22" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="25" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2283,212 +3279,212 @@
     <xf numFmtId="184" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="186" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="44" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="57" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="48" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="53" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="55" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2497,224 +3493,224 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21">
+    <xf numFmtId="176" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="60" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="61" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="63" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="64" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="68" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="53" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="32" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="68" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="96">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2726,18 +3722,18 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2746,46 +3742,46 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,52 +3790,55 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2863,25 +3862,25 @@
     <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2890,14 +3889,35 @@
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="187">
@@ -3391,17 +4411,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8" style="34" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.875" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -3414,34 +4434,34 @@
       <c r="B1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>189</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>190</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>177</v>
+      <c r="A2" s="59" t="s">
+        <v>300</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="58"/>
       <c r="E2" s="42"/>
       <c r="F2" s="47">
         <v>42623</v>
@@ -3452,13 +4472,13 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="42">
         <v>3</v>
@@ -3472,13 +4492,13 @@
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -3492,13 +4512,13 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E5" s="45">
         <v>1</v>
@@ -3512,13 +4532,13 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E6" s="45">
         <v>1</v>
@@ -3532,13 +4552,13 @@
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="51" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="42">
         <v>2</v>
@@ -3552,13 +4572,13 @@
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="45">
         <v>1</v>
@@ -3572,13 +4592,13 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="45">
         <v>1</v>
@@ -3592,13 +4612,13 @@
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="45">
         <v>2</v>
@@ -3612,14 +4632,14 @@
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="57"/>
+      <c r="C11" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="58"/>
       <c r="E11" s="45">
         <v>15</v>
       </c>
@@ -3632,13 +4652,13 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="42">
         <v>6</v>
@@ -3652,13 +4672,13 @@
       <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="87" t="s">
-        <v>223</v>
+      <c r="D13" s="56" t="s">
+        <v>222</v>
       </c>
       <c r="E13" s="45">
         <v>5</v>
@@ -3672,13 +4692,13 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="87" t="s">
-        <v>200</v>
+      <c r="D14" s="56" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="45">
         <v>2</v>
@@ -3692,13 +4712,13 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="87" t="s">
-        <v>201</v>
+      <c r="D15" s="56" t="s">
+        <v>200</v>
       </c>
       <c r="E15" s="45">
         <v>0.5</v>
@@ -3712,13 +4732,13 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="87" t="s">
-        <v>202</v>
+      <c r="D16" s="56" t="s">
+        <v>201</v>
       </c>
       <c r="E16" s="45">
         <v>2</v>
@@ -3732,13 +4752,13 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="87" t="s">
-        <v>214</v>
+      <c r="D17" s="56" t="s">
+        <v>213</v>
       </c>
       <c r="E17" s="45">
         <v>0.5</v>
@@ -3752,13 +4772,13 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="45">
         <v>1</v>
@@ -3772,13 +4792,13 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="45">
         <v>0.5</v>
@@ -3792,35 +4812,35 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="45">
         <v>0</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="45">
         <v>0.5</v>
@@ -3834,35 +4854,35 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="45">
         <v>0</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="45">
         <v>5</v>
@@ -3876,13 +4896,13 @@
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="45">
         <v>2</v>
@@ -3896,13 +4916,13 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="45">
         <v>0.5</v>
@@ -3916,13 +4936,13 @@
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E26" s="45">
         <v>2</v>
@@ -3936,13 +4956,13 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="45">
         <v>0.5</v>
@@ -3956,13 +4976,13 @@
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="45">
         <v>4</v>
@@ -3976,13 +4996,13 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="45">
         <v>2</v>
@@ -3996,35 +5016,35 @@
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" s="44"/>
       <c r="D30" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="45">
         <v>0</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="45">
         <v>2</v>
@@ -4038,36 +5058,36 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E32" s="45">
         <v>0</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="57"/>
+        <v>194</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="58"/>
       <c r="E33" s="45">
         <v>5</v>
       </c>
@@ -4076,14 +5096,14 @@
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="57"/>
+        <v>180</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="58"/>
       <c r="E34" s="42">
         <v>10</v>
       </c>
@@ -4096,13 +5116,13 @@
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="42">
         <v>10</v>
@@ -4116,14 +5136,14 @@
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" s="57"/>
+        <v>257</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="58"/>
       <c r="E36" s="45">
         <v>12</v>
       </c>
@@ -4136,15 +5156,13 @@
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="55">
-        <v>1</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C37" s="55"/>
       <c r="D37" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E37" s="45">
         <v>8</v>
@@ -4158,13 +5176,13 @@
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" s="42">
         <v>6</v>
@@ -4178,13 +5196,13 @@
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" s="45">
         <v>2</v>
@@ -4198,13 +5216,13 @@
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="45">
         <v>2</v>
@@ -4218,13 +5236,13 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E41" s="45">
         <v>2</v>
@@ -4238,13 +5256,13 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="59"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E42" s="45">
         <v>2</v>
@@ -4258,13 +5276,13 @@
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="45">
         <v>2</v>
@@ -4278,15 +5296,13 @@
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="59"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="55">
-        <v>2</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C44" s="55"/>
       <c r="D44" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E44" s="45">
         <v>4</v>
@@ -4300,13 +5316,13 @@
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E45" s="45">
         <v>1</v>
@@ -4320,13 +5336,13 @@
       <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" s="44"/>
-      <c r="D46" s="87" t="s">
-        <v>249</v>
+      <c r="D46" s="56" t="s">
+        <v>248</v>
       </c>
       <c r="E46" s="45">
         <v>1</v>
@@ -4340,13 +5356,13 @@
       <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E47" s="45">
         <v>3</v>
@@ -4360,13 +5376,13 @@
       <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E48" s="45">
         <v>1</v>
@@ -4380,13 +5396,13 @@
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E49" s="45">
         <v>1</v>
@@ -4400,13 +5416,13 @@
       <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E50" s="45">
         <v>1</v>
@@ -4420,14 +5436,14 @@
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="57"/>
+        <v>272</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="58"/>
       <c r="E51" s="45">
         <v>15</v>
       </c>
@@ -4440,13 +5456,13 @@
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="59"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" s="50"/>
       <c r="D52" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E52" s="45">
         <v>5</v>
@@ -4458,17 +5474,17 @@
         <v>42665</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E53" s="45">
         <v>5</v>
@@ -4480,18 +5496,18 @@
         <v>42680</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="59"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" s="57"/>
+        <v>273</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="58"/>
       <c r="E54" s="45">
         <v>9</v>
       </c>
@@ -4504,13 +5520,13 @@
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="59"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" s="42">
         <v>3</v>
@@ -4524,13 +5540,13 @@
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="59"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="42">
         <v>3</v>
@@ -4544,13 +5560,13 @@
       <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="59"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57" s="42">
         <v>3</v>
@@ -4564,14 +5580,14 @@
       <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="57"/>
+        <v>279</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="58"/>
       <c r="E58" s="42">
         <v>10</v>
       </c>
@@ -4584,13 +5600,13 @@
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="59"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E59" s="42">
         <v>10</v>
@@ -4604,14 +5620,14 @@
       <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="59"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="57"/>
+        <v>281</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="58"/>
       <c r="E60" s="42">
         <v>10</v>
       </c>
@@ -4624,13 +5640,13 @@
       <c r="H60" s="24"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="59"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E61" s="42">
         <v>5</v>
@@ -4644,13 +5660,13 @@
       <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="60"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62" s="42">
         <v>5</v>
@@ -4684,6 +5700,314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="8" style="34" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="87.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="60"/>
+      <c r="B3" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="60"/>
+      <c r="B4" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="60"/>
+      <c r="B5" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="60"/>
+      <c r="B6" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="60"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="60"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="60"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="60"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="60"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="60"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="60"/>
+      <c r="B13" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="60"/>
+      <c r="B14" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="60"/>
+      <c r="B15" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="60"/>
+      <c r="B16" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="60"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="60"/>
+      <c r="B18" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="60"/>
+      <c r="B19" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="60"/>
+      <c r="B20" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
@@ -4758,7 +6082,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -4781,14 +6105,14 @@
       <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="80"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -4809,14 +6133,14 @@
       <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="81"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="82"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -4837,14 +6161,14 @@
       <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="81"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="82"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -4865,14 +6189,14 @@
       <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="81"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="82"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -4893,14 +6217,14 @@
       <c r="I6" s="10">
         <v>0.2</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="81"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -4921,14 +6245,14 @@
       <c r="I7" s="10">
         <v>0.5</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="82"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -4949,16 +6273,16 @@
       <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76" t="s">
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -4979,14 +6303,14 @@
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="77"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -5007,14 +6331,14 @@
       <c r="I10" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="77"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="78"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -5035,14 +6359,14 @@
       <c r="I11" s="10">
         <v>0.7</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="77"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -5063,14 +6387,14 @@
       <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="77"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -5103,10 +6427,10 @@
       <c r="M13" s="18">
         <v>1</v>
       </c>
-      <c r="N13" s="77"/>
+      <c r="N13" s="78"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="16">
         <v>13</v>
       </c>
@@ -5131,10 +6455,10 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="78"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="13">
@@ -5169,12 +6493,12 @@
       <c r="M15" s="18">
         <v>1</v>
       </c>
-      <c r="N15" s="66" t="s">
+      <c r="N15" s="67" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="13">
         <v>2</v>
       </c>
@@ -5207,10 +6531,10 @@
       <c r="M16" s="18">
         <v>1</v>
       </c>
-      <c r="N16" s="67"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="13">
         <v>3</v>
       </c>
@@ -5243,10 +6567,10 @@
       <c r="M17" s="18">
         <v>1</v>
       </c>
-      <c r="N17" s="67"/>
+      <c r="N17" s="68"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="13">
         <v>4</v>
       </c>
@@ -5271,10 +6595,10 @@
       <c r="K18" s="18"/>
       <c r="L18" s="20"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="67"/>
+      <c r="N18" s="68"/>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="13">
         <v>5</v>
       </c>
@@ -5299,10 +6623,10 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="67"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="13">
         <v>6</v>
       </c>
@@ -5327,10 +6651,10 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
-      <c r="N20" s="67"/>
+      <c r="N20" s="68"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="13">
         <v>7</v>
       </c>
@@ -5353,10 +6677,10 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="68"/>
+      <c r="N21" s="69"/>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="13">
         <v>8</v>
       </c>
@@ -5389,12 +6713,12 @@
       <c r="M22" s="18">
         <v>1</v>
       </c>
-      <c r="N22" s="85" t="s">
+      <c r="N22" s="86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="13">
         <v>9</v>
       </c>
@@ -5426,10 +6750,10 @@
       <c r="M23" s="18">
         <v>1</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="87"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="13">
         <v>10</v>
       </c>
@@ -5462,10 +6786,10 @@
       <c r="M24" s="27">
         <v>0</v>
       </c>
-      <c r="N24" s="86"/>
+      <c r="N24" s="87"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="13">
         <v>11</v>
       </c>
@@ -5490,10 +6814,10 @@
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="86"/>
+      <c r="N25" s="87"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="13">
@@ -5523,7 +6847,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="13">
         <v>2</v>
       </c>
@@ -5551,7 +6875,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="64"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="13">
         <v>3</v>
       </c>
@@ -5579,7 +6903,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="64"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="13">
         <v>4</v>
       </c>
@@ -5607,7 +6931,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="13">
         <v>5</v>
       </c>
@@ -5635,7 +6959,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="64"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="13">
         <v>6</v>
       </c>
@@ -5663,7 +6987,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="65"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="13">
         <v>7</v>
       </c>
@@ -5691,7 +7015,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="64" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="13">
@@ -5718,12 +7042,12 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="69" t="s">
+      <c r="N33" s="70" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="64"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
         <v>18</v>
@@ -5746,10 +7070,10 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="70"/>
+      <c r="N34" s="71"/>
     </row>
     <row r="35" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
         <v>18</v>
@@ -5772,10 +7096,10 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="70"/>
+      <c r="N35" s="71"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="64"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="13">
         <v>2</v>
       </c>
@@ -5800,10 +7124,10 @@
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="71"/>
+      <c r="N36" s="72"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="64"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="13">
         <v>3</v>
       </c>
@@ -5831,7 +7155,7 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="13">
         <v>4</v>
       </c>
@@ -5863,7 +7187,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="64"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="13">
         <v>5</v>
       </c>
@@ -5890,12 +7214,12 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="83" t="s">
+      <c r="N39" s="84" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="64"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="13">
         <v>6</v>
       </c>
@@ -5922,10 +7246,10 @@
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
-      <c r="N40" s="84"/>
+      <c r="N40" s="85"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="64"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="13">
         <v>7</v>
       </c>
@@ -5955,7 +7279,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="65"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="13">
         <v>8</v>
       </c>
@@ -5985,7 +7309,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="64" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="13">
@@ -6012,12 +7336,12 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="69" t="s">
+      <c r="N43" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="64"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="13">
         <v>2</v>
       </c>
@@ -6042,10 +7366,10 @@
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="70"/>
+      <c r="N44" s="71"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="64"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="13">
         <v>3</v>
       </c>
@@ -6070,10 +7394,10 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="70"/>
+      <c r="N45" s="71"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="64"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="13">
         <v>4</v>
       </c>
@@ -6106,10 +7430,10 @@
       <c r="M46" s="27">
         <v>0</v>
       </c>
-      <c r="N46" s="71"/>
+      <c r="N46" s="72"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="64"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="13">
         <v>5</v>
       </c>
@@ -6137,7 +7461,7 @@
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="64"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="13">
         <v>6</v>
       </c>
@@ -6173,7 +7497,7 @@
       <c r="N48" s="18"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="64"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="13">
         <v>7</v>
       </c>
@@ -6201,7 +7525,7 @@
       <c r="N49" s="26"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="64"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="13">
         <v>8</v>
       </c>
@@ -6231,7 +7555,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="64"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="13">
         <v>9</v>
       </c>
@@ -6261,7 +7585,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="64"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="13">
         <v>10</v>
       </c>
@@ -6291,7 +7615,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="12" customFormat="1">
-      <c r="A53" s="65"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="13">
         <v>11</v>
       </c>
@@ -6321,7 +7645,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="64" t="s">
         <v>145</v>
       </c>
       <c r="B54" s="13">
@@ -6353,7 +7677,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="12" customFormat="1">
-      <c r="A55" s="64"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="13">
         <v>2</v>
       </c>
@@ -6378,12 +7702,12 @@
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
-      <c r="N55" s="75" t="s">
+      <c r="N55" s="76" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="12" customFormat="1">
-      <c r="A56" s="64"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="13">
         <v>3</v>
       </c>
@@ -6408,10 +7732,10 @@
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
-      <c r="N56" s="71"/>
+      <c r="N56" s="72"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1">
-      <c r="A57" s="64"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="13">
         <v>4</v>
       </c>
@@ -6441,7 +7765,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1">
-      <c r="A58" s="64"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="13">
         <v>5</v>
       </c>
@@ -6471,7 +7795,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1">
-      <c r="A59" s="64"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="13">
         <v>6</v>
       </c>
@@ -6496,12 +7820,12 @@
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="73" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1">
-      <c r="A60" s="64"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="13">
         <v>7</v>
       </c>
@@ -6526,10 +7850,10 @@
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
-      <c r="N60" s="73"/>
+      <c r="N60" s="74"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1">
-      <c r="A61" s="64"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="13">
         <v>8</v>
       </c>
@@ -6554,10 +7878,10 @@
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
       <c r="M61" s="33"/>
-      <c r="N61" s="74"/>
+      <c r="N61" s="75"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1">
-      <c r="A62" s="64"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="13">
         <v>9</v>
       </c>
@@ -6575,7 +7899,7 @@
       <c r="N62" s="18"/>
     </row>
     <row r="63" spans="1:14" s="12" customFormat="1">
-      <c r="A63" s="64"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="13">
         <v>10</v>
       </c>
@@ -6593,7 +7917,7 @@
       <c r="N63" s="18"/>
     </row>
     <row r="64" spans="1:14" s="12" customFormat="1">
-      <c r="A64" s="65"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="13">
         <v>11</v>
       </c>
